--- a/data/relics_all_tag.xlsx
+++ b/data/relics_all_tag.xlsx
@@ -46,7 +46,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -405,12 +405,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="44.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="69.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
